--- a/Nutrients/plate_maps/SampleMap_4_24_2025.xlsx
+++ b/Nutrients/plate_maps/SampleMap_4_24_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookesienkiewicz/Documents/LabNotebook/Nutrients/plate_maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF999FD-27E3-FD46-8045-28583F1C0E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D4A34-10C1-164A-B6CB-46F86A6E8DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{0CBD3B9F-BF2A-D940-8C8A-5B2A4C911238}"/>
   </bookViews>
@@ -331,7 +331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +371,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -491,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,7 +844,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1414,7 @@
       <c r="N13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1689,12 +1696,14 @@
       <c r="N19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -1706,7 +1715,7 @@
       <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" t="s">
         <v>93</v>
       </c>
       <c r="H21" t="s">
